--- a/Input_Data_Sheets/LULC_parameters.xlsx
+++ b/Input_Data_Sheets/LULC_parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Shared drives\2DCAWQ_Model\Estudos_Completos\Version_110\Gregorio_Catchment_Calibration\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcus\Desktop\Desktop_Folder\HydroPol2D_Repository\HydroPol2D\Input_Data_Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96E19A5-CACB-4C1D-A2E5-ABFEDA300421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6350F334-FCA1-463E-80F6-CD595B02EE5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28692" yWindow="-108" windowWidth="29016" windowHeight="15696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LULC_parameters" sheetId="1" r:id="rId1"/>
@@ -1010,9 +1010,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1050,7 +1050,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1156,7 +1156,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1298,7 +1298,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1310,7 +1310,7 @@
   <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1406,7 +1406,7 @@
         <v>1.2</v>
       </c>
       <c r="J3" s="6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K3" s="2"/>
     </row>
@@ -1418,10 +1418,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="8">
-        <v>2.7099999999999999E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="D4" s="8">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="E4" s="6">
         <v>0</v>

--- a/Input_Data_Sheets/LULC_parameters.xlsx
+++ b/Input_Data_Sheets/LULC_parameters.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d29a325a694f12f3/Documentos/GitHub/HydroPol2D/Input_Data_Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_FD6EE03DC7E48B0ACDA3D68F4ACC87777E01122E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C7EF7B8-E5E6-4342-A82E-81B144155992}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="11_FD6EE03DC7E48B0ACDA3D68F4ACC87777E01122E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EE4A53C-4C9F-4CDC-832F-9C98E5E64971}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LULC_parameters" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -683,7 +696,7 @@
   <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -791,7 +804,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="5">
-        <v>3.5000000000000003E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D4" s="5">
         <v>0</v>

--- a/Input_Data_Sheets/LULC_parameters.xlsx
+++ b/Input_Data_Sheets/LULC_parameters.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d29a325a694f12f3/Documentos/GitHub/HydroPol2D/Input_Data_Sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcu\Documents\GitHub\HydroPol2D\Input_Data_Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_D1D52110EF0C1FBF22ADF91C17482C29F6B6EAFD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74169467-0784-4D84-B071-9656405F81AB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508A8D2F-55EC-4EC5-AC57-276D1426B6C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -301,7 +301,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -318,12 +318,6 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor theme="0"/>
       </patternFill>
     </fill>
   </fills>
@@ -379,7 +373,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -404,9 +398,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -692,7 +683,7 @@
   <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -766,7 +757,7 @@
       <c r="B3" s="4">
         <v>0</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="4">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="D3" s="5">
@@ -788,7 +779,7 @@
         <v>1.2</v>
       </c>
       <c r="J3" s="4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K3" s="3"/>
     </row>
@@ -799,7 +790,7 @@
       <c r="B4" s="4">
         <v>1</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="4">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="D4" s="5">
@@ -830,7 +821,7 @@
       <c r="B5" s="4">
         <v>2</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="4">
         <v>0.03</v>
       </c>
       <c r="D5" s="5">
@@ -861,7 +852,7 @@
       <c r="B6" s="4">
         <v>3</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="4">
         <v>0.04</v>
       </c>
       <c r="D6" s="5">
@@ -892,7 +883,7 @@
       <c r="B7" s="4">
         <v>4</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="4">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="D7" s="5">
@@ -923,7 +914,7 @@
       <c r="B8" s="4">
         <v>5</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="4">
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="D8" s="5">
@@ -954,7 +945,7 @@
       <c r="B9" s="4">
         <v>6</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="4">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="D9" s="5">
@@ -985,7 +976,7 @@
       <c r="B10" s="4">
         <v>7</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="4">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="D10" s="5">
@@ -1016,7 +1007,7 @@
       <c r="B11" s="4">
         <v>8</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="4">
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="D11" s="5">
